--- a/AAA - Revision Asignacion de Salida (version Vacaciones 2024).xlsx
+++ b/AAA - Revision Asignacion de Salida (version Vacaciones 2024).xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>27779</v>
       </c>
       <c r="F2" t="n">
         <v>6.153105233774441</v>
       </c>
       <c r="G2" t="n">
-        <v>2.097049500121917</v>
+        <v>1.659237246161463</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -573,28 +573,28 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>4.342857142857143</v>
+        <v>-0.005489742848887605</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2227106227106227</v>
+        <v>-0.001463931426370028</v>
       </c>
     </row>
     <row r="3">
@@ -621,7 +621,7 @@
         <v>6.31138841342585</v>
       </c>
       <c r="G3" t="n">
-        <v>1.999512314069735</v>
+        <v>1.510648836057451</v>
       </c>
       <c r="H3" t="n">
         <v>8</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>4.122033898305085</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6870056497175141</v>
+        <v>0.343502824858757</v>
       </c>
     </row>
     <row r="4">
@@ -684,7 +684,7 @@
         <v>6.31138841342585</v>
       </c>
       <c r="G4" t="n">
-        <v>2.121433796634963</v>
+        <v>1.634472511144127</v>
       </c>
       <c r="H4" t="n">
         <v>9</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>4.56</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6755555555555555</v>
+        <v>0.3377777777777777</v>
       </c>
     </row>
     <row r="5">
@@ -747,7 +747,7 @@
         <v>6.367830477487592</v>
       </c>
       <c r="G5" t="n">
-        <v>2.24335527920019</v>
+        <v>1.758296186230804</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -762,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6235897435897436</v>
+        <v>0.3117948717948718</v>
       </c>
     </row>
     <row r="6">
@@ -810,7 +810,7 @@
         <v>6.367830477487592</v>
       </c>
       <c r="G6" t="n">
-        <v>1.999512314069735</v>
+        <v>1.510648836057451</v>
       </c>
       <c r="H6" t="n">
         <v>8</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6433862433862433</v>
+        <v>0.3216931216931216</v>
       </c>
     </row>
     <row r="7">
@@ -873,19 +873,19 @@
         <v>6.432861551297862</v>
       </c>
       <c r="G7" t="n">
-        <v>6.961716654474507</v>
+        <v>7.96186230807329</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -897,16 +897,16 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.961290322580645</v>
       </c>
       <c r="P7" t="n">
-        <v>4.412903225806451</v>
+        <v>2.451612903225806</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.451612903225806</v>
+        <v>2.941935483870967</v>
       </c>
       <c r="S7" t="n">
         <v>0.4903225806451612</v>
@@ -936,13 +936,13 @@
         <v>6.432861551297862</v>
       </c>
       <c r="G8" t="n">
-        <v>8.0833942940746</v>
+        <v>8.06092124814263</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.676923076923077</v>
+        <v>4.20923076923077</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>6.432861551297862</v>
       </c>
       <c r="G9" t="n">
-        <v>7.937088514996327</v>
+        <v>8.06092124814263</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>6.704028859072755</v>
       </c>
       <c r="G10" t="n">
-        <v>8.705193855157264</v>
+        <v>8.06092124814263</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1077,13 +1077,13 @@
         <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.941935483870967</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9806451612903223</v>
+        <v>0.4903225806451612</v>
       </c>
     </row>
     <row r="11">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Padawan-Sin Fijo</t>
+          <t>Knight-Tardes</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1125,43 +1125,43 @@
         <v>6.797280964913896</v>
       </c>
       <c r="G11" t="n">
-        <v>8.668617410387693</v>
+        <v>8.060921248142632</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>2.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.184415584415584</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7896103896103895</v>
+        <v>3.553246753246753</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7896103896103895</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>2.368831168831169</v>
       </c>
       <c r="S11" t="n">
-        <v>0.921212121212121</v>
+        <v>0.3948051948051948</v>
       </c>
     </row>
     <row r="12">
@@ -1188,10 +1188,10 @@
         <v>6.819673740329696</v>
       </c>
       <c r="G12" t="n">
-        <v>8.412582297000712</v>
+        <v>8.927686973749365</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -1203,16 +1203,16 @@
         <v>6</v>
       </c>
       <c r="L12" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>2</v>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.52</v>
+        <v>2.026666666666666</v>
       </c>
       <c r="P12" t="n">
         <v>1.013333333333333</v>
@@ -1224,7 +1224,7 @@
         <v>3.04</v>
       </c>
       <c r="S12" t="n">
-        <v>1.013333333333333</v>
+        <v>1.182222222222222</v>
       </c>
     </row>
     <row r="13">
@@ -1251,10 +1251,10 @@
         <v>7.021208719071896</v>
       </c>
       <c r="G13" t="n">
-        <v>8.92465252377467</v>
+        <v>8.927686973749362</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -1266,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>2.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.447619047619047</v>
+        <v>1.93015873015873</v>
       </c>
       <c r="P13" t="n">
         <v>0.965079365079365</v>
@@ -1287,13 +1287,13 @@
         <v>2.895238095238095</v>
       </c>
       <c r="S13" t="n">
-        <v>1.286772486772487</v>
+        <v>1.125925925925926</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ramos</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -1304,66 +1304,66 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>AUSENTE</t>
+          <t>Padawan-Sin Fijo</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>354</v>
+        <v>29</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.226731452340199</v>
       </c>
       <c r="G14" t="n">
-        <v>1.950743721043644</v>
+        <v>10.69836552748883</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>-0</v>
+        <v>1.961290322580645</v>
       </c>
       <c r="P14" t="n">
-        <v>-0</v>
+        <v>0.9806451612903224</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0</v>
+        <v>0.9806451612903224</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.2311787072243346</v>
+        <v>3.432258064516128</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>1.634408602150538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44440</v>
+        <v>44713</v>
       </c>
       <c r="C15" t="n">
-        <v>2.454794520547945</v>
+        <v>1.706849315068493</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1371,55 +1371,55 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" t="n">
-        <v>7.226731452340199</v>
+        <v>7.310474297388328</v>
       </c>
       <c r="G15" t="n">
-        <v>10.04633016337476</v>
+        <v>10.88410104011885</v>
       </c>
       <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
         <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
       </c>
       <c r="L15" t="n">
-        <v>2.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.470967741935484</v>
+        <v>1.93015873015873</v>
       </c>
       <c r="P15" t="n">
-        <v>1.470967741935484</v>
+        <v>0.965079365079365</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9806451612903224</v>
+        <v>1.447619047619047</v>
       </c>
       <c r="R15" t="n">
-        <v>3.432258064516128</v>
+        <v>3.377777777777777</v>
       </c>
       <c r="S15" t="n">
-        <v>1.30752688172043</v>
+        <v>1.608465608465608</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -1434,112 +1434,49 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
         <v>7.310474297388328</v>
       </c>
       <c r="G16" t="n">
-        <v>9.924408680809536</v>
+        <v>12.28330856859829</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
       </c>
       <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="M16" t="n">
         <v>2</v>
       </c>
-      <c r="K16" t="n">
-        <v>7</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0.965079365079365</v>
+        <v>1.579220779220779</v>
       </c>
       <c r="P16" t="n">
-        <v>1.447619047619047</v>
+        <v>1.184415584415584</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.965079365079365</v>
+        <v>1.184415584415584</v>
       </c>
       <c r="R16" t="n">
-        <v>3.377777777777777</v>
+        <v>3.158441558441558</v>
       </c>
       <c r="S16" t="n">
-        <v>1.286772486772487</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Rubio</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>44713</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.706849315068493</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Padawan-Sin Fijo</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>14</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7.310474297388328</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9.924408680809536</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.7896103896103895</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.184415584415584</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.7896103896103895</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.763636363636364</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.052813852813853</v>
+        <v>1.447619047619048</v>
       </c>
     </row>
   </sheetData>

--- a/AAA - Revision Asignacion de Salida (version Vacaciones 2024).xlsx
+++ b/AAA - Revision Asignacion de Salida (version Vacaciones 2024).xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,13 +555,13 @@
         <v>27779</v>
       </c>
       <c r="F2" t="n">
-        <v>6.153105233774441</v>
+        <v>5.733927907840951</v>
       </c>
       <c r="G2" t="n">
-        <v>1.659237246161463</v>
+        <v>0.9571558796718381</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -573,16 +573,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.005489742848887605</v>
+        <v>-0</v>
       </c>
       <c r="P2" t="n">
         <v>-0</v>
@@ -594,7 +594,7 @@
         <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.001463931426370028</v>
+        <v>-0.004426163869981436</v>
       </c>
     </row>
     <row r="3">
@@ -618,13 +618,13 @@
         <v>32</v>
       </c>
       <c r="F3" t="n">
-        <v>6.31138841342585</v>
+        <v>5.881428122230798</v>
       </c>
       <c r="G3" t="n">
-        <v>1.510648836057451</v>
+        <v>2.271346095411742</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6666666666666666</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>4.122033898305085</v>
+        <v>4.770802919708029</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.343502824858757</v>
+        <v>0.2958637469586374</v>
       </c>
     </row>
     <row r="4">
@@ -681,13 +681,13 @@
         <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>6.31138841342585</v>
+        <v>5.881428122230798</v>
       </c>
       <c r="G4" t="n">
-        <v>1.634472511144127</v>
+        <v>2.127013065937418</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>4.56</v>
+        <v>3.869090909090909</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3377777777777777</v>
+        <v>0.3684848484848485</v>
       </c>
     </row>
     <row r="5">
@@ -744,13 +744,13 @@
         <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>6.367830477487592</v>
+        <v>5.934025097904697</v>
       </c>
       <c r="G5" t="n">
-        <v>1.758296186230804</v>
+        <v>2.233363719234288</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -762,16 +762,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6666666666666666</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>4.676923076923077</v>
+        <v>4.56</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3117948717948718</v>
+        <v>0.2895238095238095</v>
       </c>
     </row>
     <row r="6">
@@ -807,13 +807,13 @@
         <v>28</v>
       </c>
       <c r="F6" t="n">
-        <v>6.367830477487592</v>
+        <v>5.934025097904697</v>
       </c>
       <c r="G6" t="n">
-        <v>1.510648836057451</v>
+        <v>2.233363719234288</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6666666666666666</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>3.86031746031746</v>
+        <v>4.592805755395683</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3216931216931216</v>
+        <v>0.2916067146282973</v>
       </c>
     </row>
     <row r="7">
@@ -870,46 +870,46 @@
         <v>29</v>
       </c>
       <c r="F7" t="n">
-        <v>6.432861551297862</v>
+        <v>5.994625961181145</v>
       </c>
       <c r="G7" t="n">
-        <v>7.96186230807329</v>
+        <v>7.604071710726265</v>
       </c>
       <c r="H7" t="n">
+        <v>39</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>17</v>
+      </c>
+      <c r="L7" t="n">
         <v>4</v>
       </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.961290322580645</v>
+        <v>4.28014440433213</v>
       </c>
       <c r="P7" t="n">
-        <v>2.451612903225806</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.941935483870967</v>
+        <v>1.865703971119134</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4903225806451612</v>
+        <v>0.4389891696750903</v>
       </c>
     </row>
     <row r="8">
@@ -933,46 +933,46 @@
         <v>26</v>
       </c>
       <c r="F8" t="n">
-        <v>6.432861551297862</v>
+        <v>5.994625961181145</v>
       </c>
       <c r="G8" t="n">
-        <v>8.06092124814263</v>
+        <v>7.9003342449104</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.20923076923077</v>
+        <v>4.234285714285714</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.806153846153846</v>
+        <v>1.845714285714286</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4676923076923077</v>
+        <v>0.4342857142857143</v>
       </c>
     </row>
     <row r="9">
@@ -996,46 +996,46 @@
         <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>6.432861551297862</v>
+        <v>5.994625961181145</v>
       </c>
       <c r="G9" t="n">
-        <v>8.06092124814263</v>
+        <v>7.9003342449104</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>4.412903225806451</v>
+        <v>4.28014440433213</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2.941935483870967</v>
+        <v>1.865703971119134</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4903225806451612</v>
+        <v>0.4389891696750903</v>
       </c>
     </row>
     <row r="10">
@@ -1059,46 +1059,46 @@
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>6.704028859072755</v>
+        <v>6.247320126918789</v>
       </c>
       <c r="G10" t="n">
-        <v>8.06092124814263</v>
+        <v>8.340929808568864</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4.412903225806451</v>
+        <v>4.609386281588447</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>2.941935483870967</v>
+        <v>1.975451263537906</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4903225806451612</v>
+        <v>0.4389891696750903</v>
       </c>
     </row>
     <row r="11">
@@ -1122,46 +1122,46 @@
         <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>6.797280964913896</v>
+        <v>6.334219478032186</v>
       </c>
       <c r="G11" t="n">
-        <v>8.060921248142632</v>
+        <v>8.386508659981809</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3.553246753246753</v>
+        <v>4.476712328767123</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.368831168831169</v>
+        <v>1.873972602739726</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3948051948051948</v>
+        <v>0.4164383561643835</v>
       </c>
     </row>
     <row r="12">
@@ -1185,46 +1185,46 @@
         <v>31</v>
       </c>
       <c r="F12" t="n">
-        <v>6.819673740329696</v>
+        <v>6.35508675642455</v>
       </c>
       <c r="G12" t="n">
-        <v>8.927686973749365</v>
+        <v>7.885141294439422</v>
       </c>
       <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7</v>
+      </c>
+      <c r="K12" t="n">
+        <v>19</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.999999999999997</v>
+      </c>
+      <c r="M12" t="n">
         <v>4</v>
       </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
         <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>2.026666666666666</v>
+        <v>0.1105454545454545</v>
       </c>
       <c r="P12" t="n">
-        <v>1.013333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.013333333333333</v>
+        <v>0.7738181818181817</v>
       </c>
       <c r="R12" t="n">
-        <v>3.04</v>
+        <v>2.100363636363636</v>
       </c>
       <c r="S12" t="n">
-        <v>1.182222222222222</v>
+        <v>0.7738181818181814</v>
       </c>
     </row>
     <row r="13">
@@ -1248,46 +1248,46 @@
         <v>28</v>
       </c>
       <c r="F13" t="n">
-        <v>7.021208719071896</v>
+        <v>6.542892261955807</v>
       </c>
       <c r="G13" t="n">
-        <v>8.927686973749362</v>
+        <v>7.964904284412076</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="L13" t="n">
-        <v>2.333333333333333</v>
+        <v>7.33333333333333</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.93015873015873</v>
+        <v>0.1093525179856115</v>
       </c>
       <c r="P13" t="n">
-        <v>0.965079365079365</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.965079365079365</v>
+        <v>0.7654676258992805</v>
       </c>
       <c r="R13" t="n">
-        <v>2.895238095238095</v>
+        <v>2.077697841726619</v>
       </c>
       <c r="S13" t="n">
-        <v>1.125925925925926</v>
+        <v>0.8019184652278174</v>
       </c>
     </row>
     <row r="14">
@@ -1311,46 +1311,46 @@
         <v>29</v>
       </c>
       <c r="F14" t="n">
-        <v>7.226731452340199</v>
+        <v>6.734413858159677</v>
       </c>
       <c r="G14" t="n">
-        <v>10.69836552748883</v>
+        <v>8.508052263749665</v>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="M14" t="n">
         <v>4</v>
       </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>3</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>1.961290322580645</v>
+        <v>0.1097472924187726</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9806451612903224</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9806451612903224</v>
+        <v>0.768231046931408</v>
       </c>
       <c r="R14" t="n">
-        <v>3.432258064516128</v>
+        <v>2.194945848375451</v>
       </c>
       <c r="S14" t="n">
-        <v>1.634408602150538</v>
+        <v>0.9145607701564378</v>
       </c>
     </row>
     <row r="15">
@@ -1374,46 +1374,46 @@
         <v>28</v>
       </c>
       <c r="F15" t="n">
-        <v>7.310474297388328</v>
+        <v>6.812451762284538</v>
       </c>
       <c r="G15" t="n">
-        <v>10.88410104011885</v>
+        <v>8.508052263749665</v>
       </c>
       <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
         <v>4</v>
       </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>7</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.93015873015873</v>
+        <v>0.1093525179856115</v>
       </c>
       <c r="P15" t="n">
-        <v>0.965079365079365</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.447619047619047</v>
+        <v>0.7654676258992805</v>
       </c>
       <c r="R15" t="n">
-        <v>3.377777777777777</v>
+        <v>2.18705035971223</v>
       </c>
       <c r="S15" t="n">
-        <v>1.608465608465608</v>
+        <v>0.9112709832134289</v>
       </c>
     </row>
     <row r="16">
@@ -1434,49 +1434,112 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>7.310474297388328</v>
+        <v>6.812451762284538</v>
       </c>
       <c r="G16" t="n">
-        <v>12.28330856859829</v>
+        <v>8.470069887572212</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="M16" t="n">
         <v>4</v>
       </c>
-      <c r="I16" t="n">
+      <c r="N16" t="n">
         <v>3</v>
       </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>8</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
       <c r="O16" t="n">
-        <v>1.579220779220779</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.184415584415584</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.184415584415584</v>
+        <v>0.7654676258992805</v>
       </c>
       <c r="R16" t="n">
-        <v>3.158441558441558</v>
+        <v>2.18705035971223</v>
       </c>
       <c r="S16" t="n">
-        <v>1.447619047619048</v>
+        <v>0.9112709832134289</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Recluta1</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.706849315068493</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Padawan-Sin Fijo</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.812451762284538</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8.709358857490173</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
+      <c r="L17" t="n">
+        <v>9.333333333333332</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.6954248366013072</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.986928104575163</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.9272331154684095</v>
       </c>
     </row>
   </sheetData>

--- a/AAA - Revision Asignacion de Salida (version Vacaciones 2024).xlsx
+++ b/AAA - Revision Asignacion de Salida (version Vacaciones 2024).xlsx
@@ -558,7 +558,7 @@
         <v>5.733927907840951</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9571558796718381</v>
+        <v>0.8833922261484137</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -573,10 +573,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
@@ -594,7 +594,7 @@
         <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.004426163869981436</v>
+        <v>-0.003684312584836145</v>
       </c>
     </row>
     <row r="3">
@@ -621,10 +621,10 @@
         <v>5.881428122230798</v>
       </c>
       <c r="G3" t="n">
-        <v>2.271346095411742</v>
+        <v>2.347299343765784</v>
       </c>
       <c r="H3" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>4.770802919708029</v>
+        <v>4.879012345679012</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2958637469586374</v>
+        <v>0.3336076817558298</v>
       </c>
     </row>
     <row r="4">
@@ -684,7 +684,7 @@
         <v>5.881428122230798</v>
       </c>
       <c r="G4" t="n">
-        <v>2.127013065937418</v>
+        <v>2.179034157832754</v>
       </c>
       <c r="H4" t="n">
         <v>35</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.333333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>3.869090909090909</v>
+        <v>4.360655737704918</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3684848484848485</v>
+        <v>0.3322404371584699</v>
       </c>
     </row>
     <row r="5">
@@ -747,10 +747,10 @@
         <v>5.934025097904697</v>
       </c>
       <c r="G5" t="n">
-        <v>2.233363719234288</v>
+        <v>2.305233047282527</v>
       </c>
       <c r="H5" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>4.56</v>
+        <v>4.639357429718875</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2895238095238095</v>
+        <v>0.3255689424364123</v>
       </c>
     </row>
     <row r="6">
@@ -810,10 +810,10 @@
         <v>5.934025097904697</v>
       </c>
       <c r="G6" t="n">
-        <v>2.233363719234288</v>
+        <v>2.305233047282527</v>
       </c>
       <c r="H6" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>4.592805755395683</v>
+        <v>4.676923076923077</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2916067146282973</v>
+        <v>0.3282051282051282</v>
       </c>
     </row>
     <row r="7">
@@ -873,10 +873,10 @@
         <v>5.994625961181145</v>
       </c>
       <c r="G7" t="n">
-        <v>7.604071710726265</v>
+        <v>7.580346626283051</v>
       </c>
       <c r="H7" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
         <v>4</v>
@@ -897,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>4.28014440433213</v>
+        <v>4.32520325203252</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865703971119134</v>
+        <v>1.853658536585366</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4389891696750903</v>
+        <v>0.4943089430894309</v>
       </c>
     </row>
     <row r="8">
@@ -936,19 +936,19 @@
         <v>5.994625961181145</v>
       </c>
       <c r="G8" t="n">
-        <v>7.9003342449104</v>
+        <v>7.874810701665854</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
         <v>4</v>
@@ -963,16 +963,16 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.234285714285714</v>
+        <v>4.273092369477911</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.845714285714286</v>
+        <v>1.831325301204819</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4342857142857143</v>
+        <v>0.4883534136546185</v>
       </c>
     </row>
     <row r="9">
@@ -999,19 +999,19 @@
         <v>5.994625961181145</v>
       </c>
       <c r="G9" t="n">
-        <v>7.9003342449104</v>
+        <v>8.211341073531914</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>4.28014440433213</v>
+        <v>4.32520325203252</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.865703971119134</v>
+        <v>1.977235772357723</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4389891696750903</v>
+        <v>0.4943089430894309</v>
       </c>
     </row>
     <row r="10">
@@ -1062,19 +1062,19 @@
         <v>6.247320126918789</v>
       </c>
       <c r="G10" t="n">
-        <v>8.340929808568864</v>
+        <v>8.699310112737702</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>
@@ -1089,16 +1089,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4.609386281588447</v>
+        <v>4.695934959349593</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.975451263537906</v>
+        <v>2.100813008130081</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4389891696750903</v>
+        <v>0.4943089430894309</v>
       </c>
     </row>
     <row r="11">
@@ -1125,19 +1125,19 @@
         <v>6.334219478032186</v>
       </c>
       <c r="G11" t="n">
-        <v>8.386508659981809</v>
+        <v>8.749789668517613</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4.476712328767123</v>
+        <v>4.542528735632184</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.873972602739726</v>
+        <v>1.98007662835249</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4164383561643835</v>
+        <v>0.4659003831417624</v>
       </c>
     </row>
     <row r="12">
@@ -1188,19 +1188,19 @@
         <v>6.35508675642455</v>
       </c>
       <c r="G12" t="n">
-        <v>7.885141294439422</v>
+        <v>7.954736664984045</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L12" t="n">
         <v>6.999999999999997</v>
@@ -1212,19 +1212,19 @@
         <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1105454545454545</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7738181818181817</v>
+        <v>0.7475409836065573</v>
       </c>
       <c r="R12" t="n">
-        <v>2.100363636363636</v>
+        <v>2.118032786885246</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7738181818181814</v>
+        <v>0.8721311475409832</v>
       </c>
     </row>
     <row r="13">
@@ -1251,43 +1251,43 @@
         <v>6.542892261955807</v>
       </c>
       <c r="G13" t="n">
-        <v>7.964904284412076</v>
+        <v>7.954736664984045</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L13" t="n">
-        <v>7.33333333333333</v>
+        <v>6.999999999999997</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1093525179856115</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7654676258992805</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="R13" t="n">
-        <v>2.077697841726619</v>
+        <v>2.092307692307692</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8019184652278174</v>
+        <v>0.8615384615384613</v>
       </c>
     </row>
     <row r="14">
@@ -1314,43 +1314,43 @@
         <v>6.734413858159677</v>
       </c>
       <c r="G14" t="n">
-        <v>8.508052263749665</v>
+        <v>7.954736664984045</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L14" t="n">
-        <v>8.33333333333333</v>
+        <v>6.999999999999997</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1097472924187726</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768231046931408</v>
+        <v>0.7414634146341462</v>
       </c>
       <c r="R14" t="n">
-        <v>2.194945848375451</v>
+        <v>2.100813008130081</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9145607701564378</v>
+        <v>0.8650406504065037</v>
       </c>
     </row>
     <row r="15">
@@ -1377,43 +1377,43 @@
         <v>6.812451762284538</v>
       </c>
       <c r="G15" t="n">
-        <v>8.508052263749665</v>
+        <v>8.379606259464948</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L15" t="n">
-        <v>8.33333333333333</v>
+        <v>7.33333333333333</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
         <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1093525179856115</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7654676258992805</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="R15" t="n">
-        <v>2.18705035971223</v>
+        <v>2.215384615384616</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9112709832134289</v>
+        <v>0.9025641025641022</v>
       </c>
     </row>
     <row r="16">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
         <v>6.812451762284538</v>
       </c>
       <c r="G16" t="n">
-        <v>8.470069887572212</v>
+        <v>8.442705704189834</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1452,16 +1452,16 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L16" t="n">
-        <v>8.33333333333333</v>
+        <v>7.33333333333333</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1470,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7654676258992805</v>
+        <v>0.8153256704980842</v>
       </c>
       <c r="R16" t="n">
-        <v>2.18705035971223</v>
+        <v>2.096551724137931</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9112709832134289</v>
+        <v>0.8541507024265641</v>
       </c>
     </row>
     <row r="17">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
         <v>6.812451762284538</v>
       </c>
       <c r="G17" t="n">
-        <v>8.709358857490173</v>
+        <v>8.177688036345311</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1515,16 +1515,16 @@
         <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L17" t="n">
-        <v>9.333333333333332</v>
+        <v>6.333333333333331</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6954248366013072</v>
+        <v>0.8184615384615385</v>
       </c>
       <c r="R17" t="n">
-        <v>1.986928104575163</v>
+        <v>2.104615384615385</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9272331154684095</v>
+        <v>0.7405128205128203</v>
       </c>
     </row>
   </sheetData>
